--- a/hw2.xlsx
+++ b/hw2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -149,7 +149,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -157,15 +166,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -484,17 +484,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50318B29-F2E1-4BA7-8FC5-1C6A8D2A0914}">
   <dimension ref="A2:BP9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="3.59765625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.06640625" style="1"/>
-    <col min="5" max="5" width="7.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="15" width="1.73046875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.06640625" style="1"/>
+    <col min="5" max="5" width="7.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="1.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.73046875" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="68" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="70" max="16384" width="9.06640625" style="1"/>
@@ -504,134 +505,134 @@
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="6"/>
-      <c r="BA2" s="6"/>
-      <c r="BB2" s="6"/>
-      <c r="BC2" s="6"/>
-      <c r="BD2" s="6"/>
-      <c r="BE2" s="6"/>
-      <c r="BF2" s="6"/>
-      <c r="BG2" s="6"/>
-      <c r="BH2" s="6"/>
-      <c r="BI2" s="6"/>
-      <c r="BJ2" s="6"/>
-      <c r="BK2" s="6"/>
-      <c r="BL2" s="6"/>
-      <c r="BM2" s="6"/>
-      <c r="BN2" s="6"/>
-      <c r="BO2" s="6"/>
-      <c r="BP2" s="6"/>
+      <c r="F2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="8"/>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="8"/>
+      <c r="BK2" s="8"/>
+      <c r="BL2" s="8"/>
+      <c r="BM2" s="8"/>
+      <c r="BN2" s="8"/>
+      <c r="BO2" s="8"/>
+      <c r="BP2" s="8"/>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.45">
       <c r="C3" s="1">
         <f ca="1">RAND()-0.5</f>
-        <v>-8.127015136328386E-2</v>
-      </c>
-      <c r="E3" s="7">
+        <v>9.9618587937632452E-2</v>
+      </c>
+      <c r="E3" s="3">
         <f t="array" aca="1" ref="E3:BP3" ca="1">_xll.FLOAT.BITS(C3)</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="8">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H3" s="8">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I3" s="8">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J3" s="8">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K3" s="8">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="L3" s="8">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M3" s="8">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="N3" s="8">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="O3" s="8">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="M3" s="4">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="N3" s="4">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
         <f ca="1"/>
         <v>1</v>
       </c>
       <c r="Q3" s="1">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
         <f ca="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1">
         <f ca="1"/>
@@ -639,7 +640,7 @@
       </c>
       <c r="T3" s="1">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" s="1">
         <f ca="1"/>
@@ -647,7 +648,7 @@
       </c>
       <c r="V3" s="1">
         <f ca="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="1">
         <f ca="1"/>
@@ -659,15 +660,15 @@
       </c>
       <c r="Y3" s="1">
         <f ca="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <f ca="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="1">
         <f ca="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="1">
         <f ca="1"/>
@@ -675,7 +676,7 @@
       </c>
       <c r="AC3" s="1">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="1">
         <f ca="1"/>
@@ -695,7 +696,7 @@
       </c>
       <c r="AH3" s="1">
         <f ca="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="1">
         <f ca="1"/>
@@ -711,15 +712,15 @@
       </c>
       <c r="AL3" s="1">
         <f ca="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="1">
         <f ca="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3" s="1">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO3" s="1">
         <f ca="1"/>
@@ -731,11 +732,11 @@
       </c>
       <c r="AQ3" s="1">
         <f ca="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR3" s="1">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS3" s="1">
         <f ca="1"/>
@@ -743,19 +744,19 @@
       </c>
       <c r="AT3" s="1">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="1">
         <f ca="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3" s="1">
         <f ca="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3" s="1">
         <f ca="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX3" s="1">
         <f ca="1"/>
@@ -763,11 +764,11 @@
       </c>
       <c r="AY3" s="1">
         <f ca="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="1">
         <f ca="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3" s="1">
         <f ca="1"/>
@@ -791,11 +792,11 @@
       </c>
       <c r="BF3" s="1">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG3" s="1">
         <f ca="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH3" s="1">
         <f ca="1"/>
@@ -807,7 +808,7 @@
       </c>
       <c r="BJ3" s="1">
         <f ca="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK3" s="1">
         <f ca="1"/>
@@ -815,11 +816,11 @@
       </c>
       <c r="BL3" s="1">
         <f ca="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3" s="1">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN3" s="1">
         <f ca="1"/>
@@ -835,264 +836,201 @@
       </c>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="7">
-        <f ca="1">E3</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
-        <f t="shared" ref="F4:BP4" ca="1" si="0">F3</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="W4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Z4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AA4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AB4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AG4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AH4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AI4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AL4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AM4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AN4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AR4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AS4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AT4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AV4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AW4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AX4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AY4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BA4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BB4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BC4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BD4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BE4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BF4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BG4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BH4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BI4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BJ4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BK4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BL4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BM4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BN4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BO4" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BP4" s="8">
-        <f t="shared" ca="1" si="0"/>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3">
+        <f t="array" ref="E4:BP4">_xll.FLOAT.BITS(C4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>1</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1100,50 +1038,50 @@
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="7">
-        <f ca="1">IF(E4=0,1,-1)</f>
-        <v>-1</v>
-      </c>
-      <c r="F5" s="8">
-        <f t="shared" ref="F5:N5" si="1">G5*2</f>
+      <c r="D5" s="3">
+        <f>IF(E4=0,1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" ref="F5:M5" si="0">G5*2</f>
         <v>1024</v>
       </c>
-      <c r="G5" s="8">
-        <f t="shared" si="1"/>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
         <v>512</v>
       </c>
-      <c r="H5" s="8">
-        <f t="shared" si="1"/>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="I5" s="8">
-        <f t="shared" si="1"/>
+      <c r="I5" s="4">
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="J5" s="8">
-        <f t="shared" si="1"/>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="K5" s="8">
-        <f t="shared" si="1"/>
+      <c r="K5" s="4">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="L5" s="8">
-        <f t="shared" si="1"/>
+      <c r="L5" s="4">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M5" s="8">
-        <f t="shared" si="1"/>
+      <c r="M5" s="4">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="4">
         <f>O5*2</f>
         <v>4</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="4">
         <v>2</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="3">
         <v>1</v>
       </c>
       <c r="Q5" s="1">
@@ -1155,287 +1093,287 @@
         <v>0.25</v>
       </c>
       <c r="S5" s="1">
-        <f t="shared" ref="S5:BP5" si="2">R5/2</f>
+        <f t="shared" ref="S5:BP5" si="1">R5/2</f>
         <v>0.125</v>
       </c>
       <c r="T5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
       <c r="V5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.5625E-2</v>
       </c>
       <c r="W5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.8125E-3</v>
       </c>
       <c r="X5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.90625E-3</v>
       </c>
       <c r="Y5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.953125E-3</v>
       </c>
       <c r="Z5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.765625E-4</v>
       </c>
       <c r="AA5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.8828125E-4</v>
       </c>
       <c r="AB5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.44140625E-4</v>
       </c>
       <c r="AC5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.220703125E-4</v>
       </c>
       <c r="AD5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.103515625E-5</v>
       </c>
       <c r="AE5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.0517578125E-5</v>
       </c>
       <c r="AF5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.52587890625E-5</v>
       </c>
       <c r="AG5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.62939453125E-6</v>
       </c>
       <c r="AH5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.814697265625E-6</v>
       </c>
       <c r="AI5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.9073486328125E-6</v>
       </c>
       <c r="AJ5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.5367431640625E-7</v>
       </c>
       <c r="AK5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.76837158203125E-7</v>
       </c>
       <c r="AL5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.384185791015625E-7</v>
       </c>
       <c r="AM5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1920928955078125E-7</v>
       </c>
       <c r="AN5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.9604644775390625E-8</v>
       </c>
       <c r="AO5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.9802322387695313E-8</v>
       </c>
       <c r="AP5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.4901161193847656E-8</v>
       </c>
       <c r="AQ5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.4505805969238281E-9</v>
       </c>
       <c r="AR5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.7252902984619141E-9</v>
       </c>
       <c r="AS5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.862645149230957E-9</v>
       </c>
       <c r="AT5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.3132257461547852E-10</v>
       </c>
       <c r="AU5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.6566128730773926E-10</v>
       </c>
       <c r="AV5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.3283064365386963E-10</v>
       </c>
       <c r="AW5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1641532182693481E-10</v>
       </c>
       <c r="AX5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.8207660913467407E-11</v>
       </c>
       <c r="AY5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.9103830456733704E-11</v>
       </c>
       <c r="AZ5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.4551915228366852E-11</v>
       </c>
       <c r="BA5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.2759576141834259E-12</v>
       </c>
       <c r="BB5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.637978807091713E-12</v>
       </c>
       <c r="BC5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.8189894035458565E-12</v>
       </c>
       <c r="BD5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.0949470177292824E-13</v>
       </c>
       <c r="BE5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5474735088646412E-13</v>
       </c>
       <c r="BF5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.2737367544323206E-13</v>
       </c>
       <c r="BG5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1368683772161603E-13</v>
       </c>
       <c r="BH5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.6843418860808015E-14</v>
       </c>
       <c r="BI5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.8421709430404007E-14</v>
       </c>
       <c r="BJ5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.4210854715202004E-14</v>
       </c>
       <c r="BK5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.1054273576010019E-15</v>
       </c>
       <c r="BL5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.5527136788005009E-15</v>
       </c>
       <c r="BM5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.7763568394002505E-15</v>
       </c>
       <c r="BN5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.8817841970012523E-16</v>
       </c>
       <c r="BO5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.4408920985006262E-16</v>
       </c>
       <c r="BP5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.2204460492503131E-16</v>
       </c>
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <f ca="1">SUM(F6:P6)-1023</f>
-        <v>-4</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" ref="F6:O6" ca="1" si="3">F5*F4</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>512</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>256</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>128</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>64</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="L6" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="M6" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="N6" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="P6" s="7">
-        <f ca="1">P5*P4</f>
-        <v>1</v>
+        <f>SUM(F6:P6)-1023</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" ref="F6:O6" si="2">F5*F4</f>
+        <v>1024</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <f>P5*P4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <f ca="1">1+SUMPRODUCT(Q5:BP5,Q4:BP4)</f>
-        <v>1.3003224218125418</v>
+        <f>1+SUMPRODUCT(Q5:BP5,Q4:BP4)</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <f ca="1">D5*2^D6*D7</f>
-        <v>-8.127015136328386E-2</v>
+        <f>D5*2^D6*D7</f>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D9" s="1">
         <f ca="1">C3-D8</f>
-        <v>0</v>
+        <v>-2.9003814120623677</v>
       </c>
     </row>
   </sheetData>
